--- a/ConnectedOffice User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/ConnectedOffice User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27677\Desktop\CMPG323_PROJECT_4_34385479\ConnectedOffice User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C8C2BC-925E-4411-9192-71BCAC8558FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3744FD62-7E51-493C-A689-2027979A4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -779,6 +779,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -796,6 +799,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -813,6 +819,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -830,6 +839,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -847,6 +859,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -864,6 +879,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -881,6 +899,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -898,6 +919,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -915,6 +939,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -932,6 +959,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -949,6 +979,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -966,6 +999,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -982,6 +1018,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/ConnectedOffice User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/ConnectedOffice User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27677\Desktop\CMPG323_PROJECT_4_34385479\ConnectedOffice User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3744FD62-7E51-493C-A689-2027979A4F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212CE48-9EFE-4BB0-A5BA-4D8EC33C0772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>CustomerId</t>
   </si>
@@ -378,6 +378,21 @@
   </si>
   <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>Edit Results</t>
+  </si>
+  <si>
+    <t>Delete Results</t>
+  </si>
+  <si>
+    <t>Successfully Editing  Customers - Well Done</t>
+  </si>
+  <si>
+    <t>Successfully Editing Products - Well Done</t>
+  </si>
+  <si>
+    <t>Successfully Editing OrdersDetails - Well Done</t>
   </si>
 </sst>
 </file>
@@ -730,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,9 +756,11 @@
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,8 +779,14 @@
       <c r="F1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12280</v>
       </c>
@@ -782,8 +805,14 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12640</v>
       </c>
@@ -802,8 +831,14 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13735</v>
       </c>
@@ -822,8 +857,14 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15325</v>
       </c>
@@ -842,8 +883,14 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16240</v>
       </c>
@@ -862,8 +909,14 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>17425</v>
       </c>
@@ -882,8 +935,14 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>17950</v>
       </c>
@@ -902,8 +961,14 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>18085</v>
       </c>
@@ -922,8 +987,14 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>18820</v>
       </c>
@@ -942,8 +1013,14 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>19420</v>
       </c>
@@ -962,8 +1039,14 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20320</v>
       </c>
@@ -982,8 +1065,14 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20860</v>
       </c>
@@ -1002,8 +1091,14 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21085</v>
       </c>
@@ -1020,6 +1115,132 @@
         <v>5815761997</v>
       </c>
       <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1030,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,9 +1264,10 @@
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1064,8 +1286,11 @@
       <c r="F1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>456</v>
       </c>
@@ -1081,8 +1306,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>713</v>
       </c>
@@ -1098,8 +1326,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>714</v>
       </c>
@@ -1115,8 +1346,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>715</v>
       </c>
@@ -1132,8 +1366,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>977</v>
       </c>
@@ -1149,8 +1386,11 @@
       <c r="E6">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1894</v>
       </c>
@@ -1166,8 +1406,11 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2822</v>
       </c>
@@ -1184,7 +1427,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4152</v>
       </c>
@@ -1201,7 +1444,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4153</v>
       </c>
@@ -1218,7 +1461,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4154</v>
       </c>
@@ -1235,7 +1478,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4170</v>
       </c>
@@ -1252,7 +1495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4171</v>
       </c>
@@ -1269,7 +1512,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4407</v>
       </c>
@@ -1286,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4408</v>
       </c>
@@ -1303,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4409</v>
       </c>
@@ -1752,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,7 +2010,7 @@
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1783,8 +2026,11 @@
       <c r="E1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100041</v>
       </c>
@@ -1797,8 +2043,11 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100048</v>
       </c>
@@ -1812,7 +2061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100055</v>
       </c>
@@ -1826,7 +2075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100069</v>
       </c>
@@ -1840,7 +2089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>100083</v>
       </c>
@@ -1854,7 +2103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>100090</v>
       </c>
@@ -1868,7 +2117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100097</v>
       </c>
@@ -1882,7 +2131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>100111</v>
       </c>
@@ -1896,7 +2145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100146</v>
       </c>
@@ -1910,7 +2159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>100153</v>
       </c>
@@ -1924,7 +2173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100160</v>
       </c>
@@ -1938,7 +2187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>100202</v>
       </c>
@@ -1952,7 +2201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100209</v>
       </c>
@@ -1966,7 +2215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100216</v>
       </c>
@@ -1987,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2000,9 +2249,10 @@
     <col min="3" max="3" width="47.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2018,8 +2268,11 @@
       <c r="E1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10000215</v>
       </c>
@@ -2032,8 +2285,14 @@
       <c r="D2">
         <v>950</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10000241</v>
       </c>
@@ -2046,8 +2305,14 @@
       <c r="D3">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10000304</v>
       </c>
@@ -2060,8 +2325,14 @@
       <c r="D4">
         <v>281</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10000343</v>
       </c>
@@ -2074,8 +2345,11 @@
       <c r="D5">
         <v>502</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10000418</v>
       </c>
@@ -2088,8 +2362,11 @@
       <c r="D6">
         <v>621</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10000615</v>
       </c>
@@ -2102,8 +2379,11 @@
       <c r="D7">
         <v>765</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10000788</v>
       </c>
@@ -2116,8 +2396,11 @@
       <c r="D8">
         <v>709</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10000807</v>
       </c>
@@ -2130,8 +2413,11 @@
       <c r="D9">
         <v>485</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10001154</v>
       </c>
@@ -2144,8 +2430,11 @@
       <c r="D10">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10001215</v>
       </c>
@@ -2158,8 +2447,11 @@
       <c r="D11">
         <v>485</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10001465</v>
       </c>
@@ -2172,8 +2464,11 @@
       <c r="D12">
         <v>322</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10001469</v>
       </c>
@@ -2186,8 +2481,11 @@
       <c r="D13">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10001473</v>
       </c>
@@ -2200,8 +2498,11 @@
       <c r="D14">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10001509</v>
       </c>
@@ -2214,8 +2515,11 @@
       <c r="D15">
         <v>634</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10001597</v>
       </c>
